--- a/DMSNewVSale_2025-11-27_18-41.xlsx
+++ b/DMSNewVSale_2025-11-27_18-41.xlsx
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>38.00</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
     <t>DULOXEPRIN 30MG 28 CAPSULES</t>
@@ -2097,14 +2100,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2113,14 +2116,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2130,14 +2133,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2146,14 +2149,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2163,14 +2166,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2179,14 +2182,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2196,11 +2199,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>15</v>
@@ -2212,14 +2215,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2229,14 +2232,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2245,14 +2248,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2262,14 +2265,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2278,7 +2281,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2295,11 +2298,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2311,7 +2314,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2328,11 +2331,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2344,14 +2347,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2361,11 +2364,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2377,14 +2380,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2394,11 +2397,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2410,14 +2413,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2427,14 +2430,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2443,7 +2446,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2456,18 +2459,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2476,28 +2479,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>15</v>
@@ -2509,28 +2512,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>15</v>
@@ -2542,31 +2545,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2575,7 +2578,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2592,14 +2595,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2608,14 +2611,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2625,14 +2628,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2641,14 +2644,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2658,14 +2661,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,14 +2677,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2691,11 +2694,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2707,31 +2710,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2740,31 +2743,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2773,14 +2776,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2790,14 +2793,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2806,7 +2809,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2823,11 +2826,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2839,7 +2842,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2852,15 +2855,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2872,31 +2875,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2905,14 +2908,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2922,14 +2925,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2938,14 +2941,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2955,11 +2958,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>15</v>
@@ -2971,14 +2974,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2988,11 +2991,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>15</v>
@@ -3004,14 +3007,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3021,11 +3024,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>15</v>
@@ -3037,14 +3040,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3054,11 +3057,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>15</v>
@@ -3070,14 +3073,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3110,7 +3113,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3120,11 +3123,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3136,28 +3139,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3169,31 +3172,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3202,14 +3205,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3235,14 +3238,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3252,14 +3255,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3268,7 +3271,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3281,15 +3284,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3301,14 +3304,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3318,11 +3321,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3334,14 +3337,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3351,11 +3354,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3374,7 +3377,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3384,11 +3387,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3400,14 +3403,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3417,14 +3420,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>201</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3433,14 +3436,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3450,14 +3453,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3466,14 +3469,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3483,11 +3486,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3499,14 +3502,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3516,14 +3519,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3532,14 +3535,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3549,14 +3552,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3565,14 +3568,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3582,11 +3585,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3598,14 +3601,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3615,11 +3618,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3631,14 +3634,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3648,11 +3651,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3671,7 +3674,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3681,11 +3684,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3704,7 +3707,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3714,11 +3717,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3730,14 +3733,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3747,11 +3750,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3770,7 +3773,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3780,14 +3783,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3796,14 +3799,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3813,14 +3816,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3836,7 +3839,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3846,11 +3849,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3862,14 +3865,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3879,11 +3882,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3895,14 +3898,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3912,11 +3915,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3935,7 +3938,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3949,7 +3952,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3968,7 +3971,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3978,11 +3981,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3994,14 +3997,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4027,14 +4030,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4044,51 +4047,84 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>244</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>192</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>26</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>193</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" ht="25.5" customHeight="1">
-      <c r="N88" s="13">
-        <v>5474.2550000000001</v>
-      </c>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>244</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="26.25" customHeight="1">
+      <c r="N89" s="13">
+        <v>5508.2550000000001</v>
+      </c>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>245</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>246</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>247</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4502,10 +4538,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
